--- a/data/trans_camb/P16_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P16_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,03</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,01</t>
+          <t>4,11</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,5</t>
+          <t>10,71</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,83</t>
+          <t>-2,32</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,76</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>4,09</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>9,64</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>4,01</t>
+          <t>5,96</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>11,22</t>
+          <t>6,84</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-1,18</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-0,53</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>3,52</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>7,03</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>8,07</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>3,87</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 4,1</t>
+          <t>-3,1; 4,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 3,75</t>
+          <t>-3,4; 3,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 7,16</t>
+          <t>-0,77; 6,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,95; 18,02</t>
+          <t>-0,03; 7,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 1,51</t>
+          <t>5,17; 15,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 2,31</t>
+          <t>-4,09; 5,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,56; 10,69</t>
+          <t>-6,68; 1,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,54; 12,98</t>
+          <t>-5,18; 2,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 1,64</t>
+          <t>-0,25; 9,05</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 2,01</t>
+          <t>4,7; 14,42</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,86; 7,69</t>
+          <t>0,79; 11,28</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,3; 13,99</t>
+          <t>1,75; 11,78</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-4,28; 1,41</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-3,13; 2,42</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0,78; 6,85</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>3,62; 10,59</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>4,66; 11,78</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>0,14; 7,35</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>28,33%</t>
+          <t>26,35%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>130,94%</t>
+          <t>38,4%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-12,53%</t>
+          <t>72,3%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-8,18%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>24,25%</t>
+          <t>-11,62%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>43,97%</t>
+          <t>-6,55%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-8,33%</t>
+          <t>20,53%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-4,05%</t>
+          <t>48,39%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>25,82%</t>
+          <t>20,15%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>72,34%</t>
+          <t>23,84%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-7,58%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-3,43%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>22,66%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>45,3%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>35,78%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>14,48%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-26,49; 45,37</t>
+          <t>-27,08; 45,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-26,37; 42,48</t>
+          <t>-27,99; 39,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 78,68</t>
+          <t>-7,24; 70,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>77,16; 200,32</t>
+          <t>-0,28; 87,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-30,57; 8,8</t>
+          <t>28,96; 120,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-25,53; 12,27</t>
+          <t>-15,04; 26,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,45; 60,56</t>
+          <t>-29,76; 9,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,06; 73,59</t>
+          <t>-24,17; 14,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-24,75; 11,48</t>
+          <t>-1,38; 50,78</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-19,29; 14,09</t>
+          <t>21,29; 82,08</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,89; 53,57</t>
+          <t>2,29; 42,38</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>48,99; 100,06</t>
+          <t>5,68; 45,13</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-25,4; 9,62</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-18,41; 17,27</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>4,4; 48,39</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>20,99; 71,42</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>18,7; 57,15</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0,5; 28,53</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,1</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,15</t>
+          <t>5,94</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,28</t>
+          <t>12,43</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>8,23</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>-2,4</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>14,59</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,69</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>13,38</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>12,06</t>
+          <t>-1,02</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-2,04</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2,57</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>9,65</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>6,24</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>3,83</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 3,49</t>
+          <t>-6,46; 3,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 5,73</t>
+          <t>-4,57; 5,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 6,9</t>
+          <t>-3,05; 7,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,87; 16,93</t>
+          <t>0,01; 11,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 1,79</t>
+          <t>5,04; 19,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 3,83</t>
+          <t>-0,41; 16,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 7,44</t>
+          <t>-7,4; 2,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,91; 22,63</t>
+          <t>-4,5; 4,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 0,73</t>
+          <t>-1,75; 8,42</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 3,62</t>
+          <t>7,31; 19,36</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 5,79</t>
+          <t>-8,42; 8,05</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,9; 17,57</t>
+          <t>-11,6; 8,25</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-5,35; 1,59</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-3,43; 3,62</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-1,36; 5,89</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>5,52; 13,95</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>0,56; 11,25</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-2,85; 9,57</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-16,97%</t>
+          <t>-13,59%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,9%</t>
+          <t>15,99%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>82,05%</t>
+          <t>47,99%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-16,7%</t>
+          <t>67,91%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-3,53%</t>
+          <t>36,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,3%</t>
+          <t>-12,21%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>74,3%</t>
+          <t>-0,4%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-16,81%</t>
+          <t>16,55%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-0,39%</t>
+          <t>68,17%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>14,65%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>75,21%</t>
+          <t>-2,98%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-12,74%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>1,01%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>16,06%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>60,23%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>24,28%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>13,65%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-47,82; 39,14</t>
+          <t>-45,18; 36,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-29,91; 54,64</t>
+          <t>-32,08; 53,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-21,88; 69,15</t>
+          <t>-21,71; 75,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,67; 162,82</t>
+          <t>-0,24; 108,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-35,31; 10,77</t>
+          <t>22,28; 127,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-24,38; 22,7</t>
+          <t>-2,03; 85,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 43,13</t>
+          <t>-33,39; 14,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>34,83; 127,09</t>
+          <t>-20,69; 26,34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-35,11; 5,58</t>
+          <t>-8,04; 47,48</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-19,08; 25,51</t>
+          <t>32,71; 112,88</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 40,06</t>
+          <t>-23,75; 27,73</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>38,26; 120,91</t>
+          <t>-29,47; 28,42</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-30,46; 11,26</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-19,71; 26,59</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-7,73; 40,04</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>31,26; 99,42</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>2,22; 47,07</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-9,12; 38,56</t>
         </is>
       </c>
     </row>
@@ -1208,60 +1496,90 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>13,14</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>4,03</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,52</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>6,41</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>5,18</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6,5</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>10,0</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>1,64</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>1,53</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>2,82</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,61</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1,94</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>2,94</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>11,59</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1276,60 +1594,90 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,55; 9,43</t>
+          <t>-10,87; 9,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 7,57</t>
+          <t>-11,02; 8,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,0; 8,17</t>
+          <t>-11,21; 8,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>0,17; 30,55</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-6,23; 14,05</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 13,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 15,44</t>
+          <t>-5,83; 14,3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
+          <t>-3,47; 14,28</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-1,86; 16,16</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-0,57; 21,1</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-6,2; 8,57</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-5,23; 7,87</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-4,13; 9,73</t>
-        </is>
-      </c>
       <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-5,86; 8,5</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-5,64; 8,43</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-4,1; 9,45</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>3,04; 22,14</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1344,60 +1692,90 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-4,27%</t>
+          <t>-0,86%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-7,84%</t>
+          <t>-6,78%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-4,0%</t>
+          <t>-3,05%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>77,61%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>19,69%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>22,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>31,34%</t>
+          <t>16,56%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>25,3%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>31,74%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>48,86%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>8,77%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>8,19%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>15,11%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>8,62%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>10,41%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>15,76%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>62,06%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1412,60 +1790,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-54,66; 80,5</t>
+          <t>-47,48; 83,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-53,62; 65,84</t>
+          <t>-47,66; 77,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-50,04; 76,08</t>
+          <t>-50,89; 79,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-7,88; 234,72</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-25,74; 91,25</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-19,17; 81,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-11,23; 93,97</t>
+          <t>-24,88; 94,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
+          <t>-14,46; 90,25</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-8,89; 102,04</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-4,29; 130,86</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>-27,1; 54,51</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-22,97; 52,57</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-18,74; 61,98</t>
-        </is>
-      </c>
       <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-25,8; 55,22</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-23,9; 56,68</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-17,89; 63,58</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>11,42; 142,53</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,05</t>
+          <t>5,95</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,05</t>
+          <t>8,7</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,24</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>10,01</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>4,05</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>11,13</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>10,95</t>
+          <t>5,13</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-1,19</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>3,08</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>8,6</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>6,22</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>3,87</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 2,1</t>
+          <t>-3,63; 2,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 3,51</t>
+          <t>-2,8; 2,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 5,01</t>
+          <t>-0,94; 5,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,56; 15,43</t>
+          <t>2,74; 9,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 1,3</t>
+          <t>4,8; 13,19</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 2,26</t>
+          <t>-1,57; 7,05</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,29; 7,98</t>
+          <t>-4,46; 1,37</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,52; 13,23</t>
+          <t>-2,96; 2,78</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 0,49</t>
+          <t>1,14; 7,18</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 2,08</t>
+          <t>7,42; 14,72</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,86; 5,43</t>
+          <t>0,13; 8,31</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>8,31; 13,23</t>
+          <t>1,02; 9,3</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-3,44; 1,1</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-2,05; 2,25</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>0,93; 5,22</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>6,18; 11,17</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>2,98; 9,09</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>0,7; 6,77</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-7,62%</t>
+          <t>-5,47%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>17,7%</t>
+          <t>17,07%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>99,31%</t>
+          <t>49,04%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-10,32%</t>
+          <t>48,1%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-2,91%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>21,35%</t>
+          <t>-8,52%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>50,35%</t>
+          <t>-0,53%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-9,32%</t>
+          <t>20,37%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>-0,99%</t>
+          <t>55,99%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>19,98%</t>
+          <t>12,95%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>68,05%</t>
+          <t>17,17%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-7,39%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>0,15%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>19,13%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>53,45%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>25,19%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>14,31%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,112 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-28,8; 20,33</t>
+          <t>-27,05; 21,13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-18,88; 32,64</t>
+          <t>-20,48; 27,24</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 45,64</t>
+          <t>-7,4; 47,44</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>59,91; 144,29</t>
+          <t>18,29; 86,75</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-22,36; 7,23</t>
+          <t>23,31; 81,16</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-15,62; 12,32</t>
+          <t>-6,0; 31,44</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,63; 43,32</t>
+          <t>-21,08; 7,98</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>30,55; 70,63</t>
+          <t>-13,95; 14,69</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-21,17; 3,49</t>
+          <t>4,89; 38,32</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-13,63; 13,62</t>
+          <t>34,35; 78,26</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>5,23; 35,71</t>
+          <t>0,46; 29,25</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>49,18; 87,7</t>
+          <t>3,07; 33,45</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-20,2; 7,5</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-12,05; 15,01</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>5,48; 35,29</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>35,94; 73,93</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>11,37; 39,15</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>3,02; 27,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
